--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
   <si>
     <t>1</t>
   </si>
@@ -122,18 +122,6 @@
   </si>
   <si>
     <t>本次資料筆數，資料格式：NUMBER(2，0)</t>
-  </si>
-  <si>
-    <t>Records</t>
-  </si>
-  <si>
-    <t>List</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Minimum=0</t>
   </si>
   <si>
     <t>CardType</t>
@@ -505,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,22 +713,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -748,19 +736,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -768,39 +756,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>1</t>
   </si>
@@ -70,10 +70,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>資料類別，013：台幣，015：人民幣，016：美金</t>
-  </si>
-  <si>
-    <t>空白(空值)：表示全部類別</t>
+    <t>資料類別，013：台幣，015：人民幣，016：美金空白(空值)：表示全部類別</t>
   </si>
   <si>
     <t>CategoryCode</t>
@@ -82,10 +79,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>消費類別代碼</t>
-  </si>
-  <si>
-    <t>C01DEFAULT：生活，C02DEFAULT：交通，C03DEFAULT：娛樂，C04DEFAULT：餐飲，C05DEFAULT：購物，C06DEFAULT：其他</t>
+    <t>消費類別代碼C01DEFAULT：生活，C02DEFAULT：交通，C03DEFAULT：娛樂，C04DEFAULT：餐飲，C05DEFAULT：購物，C06DEFAULT：其他</t>
   </si>
   <si>
     <t>InquiryKey</t>
@@ -122,6 +116,18 @@
   </si>
   <si>
     <t>本次資料筆數，資料格式：NUMBER(2，0)</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Minimum=0</t>
   </si>
   <si>
     <t>CardType</t>
@@ -163,7 +169,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,10 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +525,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -532,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -552,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -572,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -591,59 +604,53 @@
       <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
@@ -651,15 +658,15 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -668,38 +675,38 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
       </c>
       <c r="F10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -708,67 +715,87 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>1</t>
   </si>
@@ -25,6 +25,15 @@
     <t>object</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>欄位名稱及說明</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -49,9 +58,6 @@
     <t>12</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>身分證字號</t>
   </si>
   <si>
@@ -122,9 +128,6 @@
   </si>
   <si>
     <t>List</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>Minimum=0</t>
@@ -522,127 +525,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -650,152 +660,159 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
